--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF7F1ED-0379-43CF-B7EA-3F977771E624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF555C62-DC68-5D49-95AC-966422752114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="780" windowWidth="28500" windowHeight="18600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62040" yWindow="4900" windowWidth="28500" windowHeight="18600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="414">
   <si>
     <t>Description</t>
   </si>
@@ -1270,6 +1270,15 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Data_capture_software</t>
+  </si>
+  <si>
+    <t>Data Capture Software</t>
+  </si>
+  <si>
+    <t>Indentier of the data processing software and version</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1454,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1484,11 +1493,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1500,9 +1506,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1740,11 +1743,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H41" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2862,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -1759,8 +1762,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D41" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D42" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -2061,17 +2064,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="76" style="10" customWidth="1"/>
     <col min="6" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2097,7 +2100,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>233</v>
       </c>
@@ -2123,26 +2126,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2168,9 +2171,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2862,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="15" t="s">
@@ -2192,9 +2195,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2864,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="15" t="s">
@@ -2216,9 +2219,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2864,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="15" t="s">
@@ -2240,9 +2243,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="15" t="s">
@@ -2264,9 +2267,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="15" t="s">
@@ -2288,9 +2291,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2868,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="15" t="s">
@@ -2309,9 +2312,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2868,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="15" t="s">
@@ -2333,9 +2336,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="15" t="s">
@@ -2357,9 +2360,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="15" t="s">
@@ -2381,9 +2384,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="15" t="s">
@@ -2402,9 +2405,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="15" t="s">
@@ -2426,9 +2429,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="15" t="s">
@@ -2450,9 +2453,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="15" t="s">
@@ -2474,9 +2477,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="15" t="s">
@@ -2498,9 +2501,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
@@ -2522,9 +2525,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="15" t="s">
@@ -2546,9 +2549,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="15" t="s">
@@ -2570,9 +2573,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="15" t="s">
@@ -2594,9 +2597,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
@@ -2618,9 +2621,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2882,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
@@ -2642,9 +2645,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2882,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2883,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
@@ -2666,9 +2669,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2883,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="15" t="s">
@@ -2690,9 +2693,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="15" t="s">
@@ -2711,9 +2714,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
@@ -2735,9 +2738,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="15" t="s">
@@ -2759,9 +2762,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="15" t="s">
@@ -2783,9 +2786,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="15" t="s">
@@ -2807,9 +2810,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2890,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="15" t="s">
@@ -2831,9 +2834,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2890,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2891,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
@@ -2855,9 +2858,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2891,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2892,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
@@ -2879,9 +2882,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2892,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2893,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="15" t="s">
@@ -2903,9 +2906,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2893,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2894,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="15" t="s">
@@ -2927,9 +2930,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2894,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="15" t="s">
@@ -2951,9 +2954,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="15" t="s">
@@ -2975,9 +2978,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
@@ -2999,9 +3002,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="15" t="s">
@@ -3020,9 +3023,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="15" t="s">
@@ -3044,9 +3047,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="15" t="s">
@@ -3068,12 +3071,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2901,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>390</v>
       </c>
       <c r="C40" s="16" t="s">
@@ -3088,27 +3091,45 @@
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="str">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2902,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="15" t="s">
         <v>393</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="21"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B2903,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3141,22 +3162,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="86.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="86.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3191,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3185,7 +3206,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3200,7 +3221,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3215,7 +3236,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3230,7 +3251,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3245,7 +3266,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3260,7 +3281,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3275,7 +3296,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3290,7 +3311,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3305,7 +3326,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3320,7 +3341,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3335,7 +3356,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3350,7 +3371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3365,7 +3386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3380,7 +3401,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3395,7 +3416,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3410,7 +3431,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3425,7 +3446,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3440,7 +3461,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3455,7 +3476,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3470,7 +3491,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3485,7 +3506,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3500,7 +3521,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3515,7 +3536,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3530,7 +3551,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3545,7 +3566,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3560,7 +3581,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3575,7 +3596,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3590,7 +3611,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3605,7 +3626,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3620,7 +3641,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3635,7 +3656,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3650,7 +3671,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3665,7 +3686,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3680,7 +3701,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3695,7 +3716,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3710,7 +3731,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3725,7 +3746,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3740,12 +3761,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="str">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3755,18 +3776,33 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="str">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3787,17 +3823,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -3808,7 +3844,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>179</v>
       </c>
@@ -3817,7 +3853,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>175</v>
       </c>
@@ -3826,7 +3862,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>174</v>
       </c>
@@ -3835,7 +3871,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>189</v>
       </c>
@@ -3844,7 +3880,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>168</v>
       </c>
@@ -3853,7 +3889,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -3862,7 +3898,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>178</v>
       </c>
@@ -3871,7 +3907,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3916,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -3889,7 +3925,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
@@ -3898,7 +3934,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
@@ -3907,7 +3943,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>173</v>
       </c>
@@ -3916,7 +3952,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>171</v>
       </c>
@@ -3925,7 +3961,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>170</v>
       </c>
@@ -3934,7 +3970,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>169</v>
       </c>
@@ -3943,7 +3979,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>176</v>
       </c>
@@ -3952,14 +3988,14 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -3968,7 +4004,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>232</v>
       </c>
@@ -3977,7 +4013,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>182</v>
       </c>
@@ -3986,7 +4022,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>184</v>
       </c>
@@ -3995,7 +4031,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>183</v>
       </c>
@@ -4004,7 +4040,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>181</v>
       </c>
@@ -4013,7 +4049,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>192</v>
       </c>
@@ -4022,7 +4058,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>186</v>
       </c>
@@ -4031,7 +4067,7 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>187</v>
       </c>
@@ -4040,7 +4076,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
@@ -4049,13 +4085,13 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -4064,7 +4100,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -4073,7 +4109,7 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>191</v>
       </c>
@@ -4082,7 +4118,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>188</v>
       </c>
@@ -4091,7 +4127,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>185</v>
       </c>
@@ -4100,7 +4136,7 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>190</v>
       </c>
@@ -4109,7 +4145,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>231</v>
       </c>
@@ -4118,907 +4154,907 @@
       </c>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>203</v>
       </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>77</v>
       </c>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>83</v>
       </c>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>84</v>
       </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>87</v>
       </c>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>89</v>
       </c>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>94</v>
       </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>96</v>
       </c>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>98</v>
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>100</v>
       </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>101</v>
       </c>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>102</v>
       </c>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>103</v>
       </c>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>104</v>
       </c>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>105</v>
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>204</v>
       </c>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>205</v>
       </c>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>206</v>
       </c>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>207</v>
       </c>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>208</v>
       </c>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>106</v>
       </c>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>107</v>
       </c>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>108</v>
       </c>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>109</v>
       </c>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>110</v>
       </c>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>111</v>
       </c>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>112</v>
       </c>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>113</v>
       </c>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>114</v>
       </c>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>115</v>
       </c>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>116</v>
       </c>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>119</v>
       </c>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>121</v>
       </c>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>122</v>
       </c>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>197</v>
       </c>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>123</v>
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>124</v>
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>125</v>
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>209</v>
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>126</v>
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>127</v>
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>128</v>
       </c>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>129</v>
       </c>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>132</v>
       </c>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>133</v>
       </c>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>134</v>
       </c>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>210</v>
       </c>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>135</v>
       </c>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>136</v>
       </c>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>222</v>
       </c>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>137</v>
       </c>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>138</v>
       </c>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>139</v>
       </c>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>140</v>
       </c>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>141</v>
       </c>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>142</v>
       </c>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>143</v>
       </c>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>144</v>
       </c>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>146</v>
       </c>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>147</v>
       </c>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>148</v>
       </c>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>149</v>
       </c>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>150</v>
       </c>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>151</v>
       </c>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>22</v>
       </c>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>211</v>
       </c>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>152</v>
       </c>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>153</v>
       </c>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>154</v>
       </c>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>212</v>
       </c>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>155</v>
       </c>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>156</v>
       </c>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>157</v>
       </c>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>158</v>
       </c>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>159</v>
       </c>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>161</v>
       </c>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>162</v>
       </c>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>213</v>
       </c>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>214</v>
       </c>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>215</v>
       </c>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>216</v>
       </c>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>217</v>
       </c>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>218</v>
       </c>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>219</v>
       </c>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>163</v>
       </c>
       <c r="D186" s="8"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>164</v>
       </c>
@@ -5044,79 +5080,79 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>409</v>
       </c>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF555C62-DC68-5D49-95AC-966422752114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145281D1-6000-264B-A368-E5C8A0A6D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62040" yWindow="4900" windowWidth="28500" windowHeight="18600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62040" yWindow="4900" windowWidth="28500" windowHeight="18600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="420">
   <si>
     <t>Description</t>
   </si>
@@ -1272,13 +1272,31 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Data_capture_software</t>
-  </si>
-  <si>
     <t>Data Capture Software</t>
   </si>
   <si>
     <t>Indentier of the data processing software and version</t>
+  </si>
+  <si>
+    <t>drilling_activity_note</t>
+  </si>
+  <si>
+    <t>Drilling Activity Note</t>
+  </si>
+  <si>
+    <t>current_drilling_state</t>
+  </si>
+  <si>
+    <t>Current Drilling State</t>
+  </si>
+  <si>
+    <t>Make notes of things while drilling MWD, or transitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auger drilling, Mud rtotary, hollow stem, rock core. </t>
+  </si>
+  <si>
+    <t>data_capture_software</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1472,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1496,6 +1514,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1530,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1743,8 +1773,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H44" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</calculatedColumnFormula>
@@ -1762,8 +1792,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D42" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D44" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -2126,10 +2156,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3116,20 +3146,62 @@
         <v/>
       </c>
       <c r="B42" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2904,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="C43" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="20"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2905,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3162,11 +3234,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3792,17 +3864,47 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="str">
+      <c r="A42" s="24" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" s="16" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" t="s">
         <v>410</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145281D1-6000-264B-A368-E5C8A0A6D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE987F4-E5E9-6248-B4A1-D62E59C23F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62040" yWindow="4900" windowWidth="28500" windowHeight="18600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="5220" windowWidth="28500" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="426">
   <si>
     <t>Description</t>
   </si>
@@ -1297,6 +1297,24 @@
   </si>
   <si>
     <t>data_capture_software</t>
+  </si>
+  <si>
+    <t>Descirption for calibration</t>
+  </si>
+  <si>
+    <t>Freeform text to describe calibration of equipment</t>
+  </si>
+  <si>
+    <t>instrumentation_calibration_desc</t>
+  </si>
+  <si>
+    <t>True False Flag for if this is a calibration test</t>
+  </si>
+  <si>
+    <t>calibration_flag</t>
+  </si>
+  <si>
+    <t>calibration flag</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1490,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1530,9 +1548,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1773,8 +1788,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H44" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H46" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</calculatedColumnFormula>
@@ -1792,8 +1807,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D44" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D46" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -2090,7 +2105,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2156,10 +2171,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3154,19 +3169,17 @@
       <c r="D42" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="str">
+      <c r="A43" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2904,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>413</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3175,19 +3188,17 @@
       <c r="D43" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="22"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="str">
+      <c r="A44" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2905,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="15" t="s">
         <v>415</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -3196,12 +3207,52 @@
       <c r="D44" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="22"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2907,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3234,11 +3285,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3864,7 +3915,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="str">
+      <c r="A42" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3879,11 +3930,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="str">
+      <c r="A43" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3894,17 +3945,47 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="str">
+      <c r="A44" t="str">
         <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1847,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
         <v>410</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60228506-C300-4049-A5C6-1D726847807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C60F1-14C3-7846-9860-E75BAC98ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1011,9 +1011,6 @@
     <t>calibration flag</t>
   </si>
   <si>
-    <t>//diggs:MWDResult/diggs:results/diggs:ResultSet/diggs:parameters/diggs:PropertyParameters/diggs:properties/diggs:Property/diggs:propertyClass</t>
-  </si>
-  <si>
     <t>The measured depth downhole reached by the drill bit; a positive number.</t>
   </si>
   <si>
@@ -1146,10 +1143,13 @@
     <t>Torque: The rotational force applied by the drill rig.</t>
   </si>
   <si>
-    <t>//diggs:MWDResult</t>
-  </si>
-  <si>
     <t>This dictionary contains the values for the propertyClass property of the diggs:Property object for the Measurement While Drilling measurement object (diggs:/MeasurementWhileDrilling).</t>
+  </si>
+  <si>
+    <t>//diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>../../../../../../../../MWDResult</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1370,24 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1396,13 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1419,56 +1394,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1566,6 +1491,56 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1693,30 +1668,30 @@
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D32" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D32" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2003,7 +1978,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2029,7 @@
         <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2046,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2125,8 +2100,8 @@
       <c r="C2" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>346</v>
+      <c r="D2" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>174</v>
@@ -2149,8 +2124,8 @@
       <c r="C3" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>351</v>
+      <c r="D3" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>1</v>
@@ -2168,13 +2143,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>336</v>
+      <c r="D4" s="23" t="s">
+        <v>335</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2196,7 +2171,7 @@
         <v>254</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
@@ -2219,8 +2194,8 @@
       <c r="C6" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>354</v>
+      <c r="D6" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
@@ -2244,7 +2219,7 @@
         <v>246</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
@@ -2267,8 +2242,8 @@
       <c r="C8" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>347</v>
+      <c r="D8" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>1</v>
@@ -2291,8 +2266,8 @@
       <c r="C9" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>348</v>
+      <c r="D9" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2315,8 +2290,8 @@
       <c r="C10" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>349</v>
+      <c r="D10" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2339,8 +2314,8 @@
       <c r="C11" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>350</v>
+      <c r="D11" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2358,13 +2333,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>355</v>
+      <c r="D12" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>180</v>
@@ -2386,7 +2361,7 @@
         <v>248</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>1</v>
@@ -2409,8 +2384,8 @@
       <c r="C14" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>357</v>
+      <c r="D14" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>1</v>
@@ -2434,7 +2409,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>1</v>
@@ -2457,8 +2432,8 @@
       <c r="C16" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>359</v>
+      <c r="D16" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2470,7 +2445,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2479,10 +2454,10 @@
         <v>262</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2494,7 +2469,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2506,7 +2481,7 @@
         <v>241</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -2518,7 +2493,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2529,8 +2504,8 @@
       <c r="C19" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>325</v>
+      <c r="D19" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -2542,7 +2517,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2553,8 +2528,8 @@
       <c r="C20" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>364</v>
+      <c r="D20" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
@@ -2566,7 +2541,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2577,8 +2552,8 @@
       <c r="C21" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>362</v>
+      <c r="D21" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
@@ -2590,7 +2565,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2601,8 +2576,8 @@
       <c r="C22" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>363</v>
+      <c r="D22" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
@@ -2614,7 +2589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2626,7 +2601,7 @@
         <v>253</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>1</v>
@@ -2638,19 +2613,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>326</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>1</v>
@@ -2662,19 +2637,19 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>330</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
@@ -2686,7 +2661,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2697,8 +2672,8 @@
       <c r="C26" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>365</v>
+      <c r="D26" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
@@ -2710,7 +2685,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2721,8 +2696,8 @@
       <c r="C27" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>366</v>
+      <c r="D27" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
@@ -2734,7 +2709,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2745,8 +2720,8 @@
       <c r="C28" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>367</v>
+      <c r="D28" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>174</v>
@@ -2756,7 +2731,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2767,8 +2742,8 @@
       <c r="C29" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>368</v>
+      <c r="D29" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>1</v>
@@ -2780,19 +2755,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>306</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
@@ -2802,19 +2777,19 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>341</v>
+      <c r="D31" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>1</v>
@@ -2826,28 +2801,27 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="26"/>
+      <c r="G32" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2884,14 +2858,14 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="118.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2918,10 +2892,10 @@
         <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,10 +2907,10 @@
         <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,10 +2922,10 @@
         <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,10 +2937,10 @@
         <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,10 +2952,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2993,10 +2967,10 @@
         <v>260</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3008,10 +2982,10 @@
         <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,10 +2997,10 @@
         <v>262</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3038,10 +3012,10 @@
         <v>263</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,10 +3027,10 @@
         <v>264</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3068,10 +3042,10 @@
         <v>265</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,10 +3057,10 @@
         <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,10 +3072,10 @@
         <v>267</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3113,10 +3087,10 @@
         <v>268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3128,10 +3102,10 @@
         <v>269</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,10 +3117,10 @@
         <v>270</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3158,10 +3132,10 @@
         <v>271</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,10 +3147,10 @@
         <v>272</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,10 +3162,10 @@
         <v>273</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,10 +3177,10 @@
         <v>274</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3218,10 +3192,10 @@
         <v>275</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3233,10 +3207,10 @@
         <v>276</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3248,10 +3222,10 @@
         <v>304</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3260,13 +3234,13 @@
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3278,10 +3252,10 @@
         <v>322</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3290,13 +3264,13 @@
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3305,13 +3279,13 @@
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3320,13 +3294,13 @@
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3335,43 +3309,43 @@
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="D31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73C60F1-14C3-7846-9860-E75BAC98ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E4B62-FB3A-A642-BBC4-432798E8ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="359">
   <si>
     <t>Description</t>
   </si>
@@ -873,78 +873,6 @@
     <t xml:space="preserve">Measured time </t>
   </si>
   <si>
-    <t>AASHTO Designation: TP xxx-yy1</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy2</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy3</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy4</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy5</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy6</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy7</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy8</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy9</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy10</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy11</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy12</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy13</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy14</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy15</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy18</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy25</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy26</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy29</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy32</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy33</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy34</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy35</t>
-  </si>
-  <si>
-    <t>AASHTO Designation: TP xxx-yy38</t>
-  </si>
-  <si>
     <t>mwd_properties</t>
   </si>
   <si>
@@ -957,9 +885,6 @@
     <t>Stop Depth</t>
   </si>
   <si>
-    <t>torque Tach (%)</t>
-  </si>
-  <si>
     <t>Measured Depth (ft)</t>
   </si>
   <si>
@@ -1008,9 +933,6 @@
     <t>calibration_flag</t>
   </si>
   <si>
-    <t>calibration flag</t>
-  </si>
-  <si>
     <t>The measured depth downhole reached by the drill bit; a positive number.</t>
   </si>
   <si>
@@ -1023,18 +945,12 @@
     <t>rotation_tool</t>
   </si>
   <si>
-    <t>Cutting tool rotational epeed</t>
-  </si>
-  <si>
     <t>The number of revolutions per unit time measured on the drill bit or cutting tool.</t>
   </si>
   <si>
     <t>crowd_pressure</t>
   </si>
   <si>
-    <t>crowd pressure</t>
-  </si>
-  <si>
     <t>torque_tach</t>
   </si>
   <si>
@@ -1143,20 +1059,68 @@
     <t>Torque: The rotational force applied by the drill rig.</t>
   </si>
   <si>
-    <t>This dictionary contains the values for the propertyClass property of the diggs:Property object for the Measurement While Drilling measurement object (diggs:/MeasurementWhileDrilling).</t>
-  </si>
-  <si>
     <t>//diggs:propertyClass</t>
   </si>
   <si>
     <t>../../../../../../../../MWDResult</t>
+  </si>
+  <si>
+    <t>New rod event</t>
+  </si>
+  <si>
+    <t>Set to true at the time or depth where a new rod is added to the drill string</t>
+  </si>
+  <si>
+    <t>Crowd pressure</t>
+  </si>
+  <si>
+    <t>Calibration flag</t>
+  </si>
+  <si>
+    <t>Torque Tach (%)</t>
+  </si>
+  <si>
+    <t>Cutting tool rotational speed</t>
+  </si>
+  <si>
+    <t>Net crowd pressure</t>
+  </si>
+  <si>
+    <t>net_crowd_pressure</t>
+  </si>
+  <si>
+    <t>event_new_rod</t>
+  </si>
+  <si>
+    <t>The difference between the crowd pressure and holdback pressure</t>
+  </si>
+  <si>
+    <t>holdback_pressure</t>
+  </si>
+  <si>
+    <t>Holdback pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hydraulic pressure used to prevent the drilling rod from penetrating too fast,  to prevent equipment from falling into a hole, or to compensate for the weight of rods added as the hole is drilled deeper.</t>
+  </si>
+  <si>
+    <t>hammering_pressure</t>
+  </si>
+  <si>
+    <t>Hammering pressure</t>
+  </si>
+  <si>
+    <t>In percussive drilling, the pressure applied to the striking hammer</t>
+  </si>
+  <si>
+    <t>This dictionary contains the values for the propertyClass property contained within the the Measurement While Drilling measurement object (diggs:/MeasurementWhileDrilling).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1249,6 +1213,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1319,7 +1288,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1379,6 +1348,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1394,6 +1400,56 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1491,56 +1547,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1658,40 +1664,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H32" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
-    <sortCondition ref="B1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+    <sortCondition ref="C1:C36"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D32" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D36" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1978,7 +1984,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2023,13 +2029,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2044,10 +2050,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,19 +2095,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="15" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>174</v>
@@ -2109,129 +2115,114 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>350</v>
+        <v>246</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>324</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>352</v>
+        <v>251</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>325</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2243,19 +2234,16 @@
         <v>238</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2267,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2275,11 +2263,8 @@
       <c r="F9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2291,7 +2276,7 @@
         <v>237</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2299,11 +2284,8 @@
       <c r="F10" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2315,16 +2297,13 @@
         <v>240</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2333,13 +2312,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>180</v>
@@ -2349,67 +2328,65 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>247</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>1</v>
@@ -2417,143 +2394,125 @@
       <c r="F15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>360</v>
+        <v>243</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>330</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>324</v>
+        <v>309</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>363</v>
+        <v>241</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>332</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
@@ -2561,267 +2520,326 @@
       <c r="F21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="F23" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="20" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>365</v>
+        <v>253</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>336</v>
+        <v>250</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>337</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D34" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="17" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2854,11 +2872,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2892,10 +2910,10 @@
         <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2907,10 +2925,10 @@
         <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,10 +2940,10 @@
         <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2937,10 +2955,10 @@
         <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2952,10 +2970,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,10 +2985,10 @@
         <v>260</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,10 +3000,10 @@
         <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2997,10 +3015,10 @@
         <v>262</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,10 +3030,10 @@
         <v>263</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,10 +3045,10 @@
         <v>264</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,10 +3060,10 @@
         <v>265</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,10 +3075,10 @@
         <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,10 +3090,10 @@
         <v>267</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3087,10 +3105,10 @@
         <v>268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,10 +3120,10 @@
         <v>269</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,10 +3135,10 @@
         <v>270</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,10 +3150,10 @@
         <v>271</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,10 +3165,10 @@
         <v>272</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3162,10 +3180,10 @@
         <v>273</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,10 +3195,10 @@
         <v>274</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,10 +3210,10 @@
         <v>275</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,10 +3225,10 @@
         <v>276</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3219,13 +3237,13 @@
         <v/>
       </c>
       <c r="B24" s="10" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3234,13 +3252,13 @@
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3249,13 +3267,13 @@
         <v/>
       </c>
       <c r="B26" s="10" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3264,13 +3282,13 @@
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3279,13 +3297,13 @@
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3294,13 +3312,13 @@
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3309,13 +3327,13 @@
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3324,13 +3342,13 @@
         <v/>
       </c>
       <c r="B31" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" t="s">
         <v>341</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D31" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3339,13 +3357,73 @@
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4626,77 +4704,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E4B62-FB3A-A642-BBC4-432798E8ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C97F0-6270-7A4B-B438-FB6DA9F28F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -765,9 +765,6 @@
     <t>Injected fluid dynamic viscosity</t>
   </si>
   <si>
-    <t>Vibration</t>
-  </si>
-  <si>
     <t>Inclination</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>This dictionary contains the values for the propertyClass property contained within the the Measurement While Drilling measurement object (diggs:/MeasurementWhileDrilling).</t>
+  </si>
+  <si>
+    <t>Vibration acceleration</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1984,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2029,13 +2029,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2052,8 +2052,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2101,13 +2101,13 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>174</v>
@@ -2122,13 +2122,13 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>1</v>
@@ -2143,13 +2143,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>235</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2164,13 +2164,13 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
@@ -2186,13 +2186,13 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
@@ -2207,13 +2207,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
@@ -2228,13 +2228,13 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>1</v>
@@ -2249,13 +2249,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>239</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2291,13 +2291,13 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2312,13 +2312,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>306</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>180</v>
@@ -2334,13 +2334,13 @@
         <v/>
       </c>
       <c r="B13" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>1</v>
@@ -2357,13 +2357,13 @@
         <v/>
       </c>
       <c r="B14" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="27" t="s">
         <v>353</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>354</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>1</v>
@@ -2380,13 +2380,13 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>1</v>
@@ -2401,13 +2401,13 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2422,13 +2422,13 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2443,13 +2443,13 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -2464,13 +2464,13 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -2485,13 +2485,13 @@
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
@@ -2506,13 +2506,13 @@
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
@@ -2527,13 +2527,13 @@
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
@@ -2548,13 +2548,13 @@
         <v/>
       </c>
       <c r="B23" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>1</v>
@@ -2571,13 +2571,13 @@
         <v/>
       </c>
       <c r="B24" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C24" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>342</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>343</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>174</v>
@@ -2593,13 +2593,13 @@
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
@@ -2614,13 +2614,13 @@
         <v/>
       </c>
       <c r="B26" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
@@ -2635,13 +2635,13 @@
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
@@ -2656,13 +2656,13 @@
         <v/>
       </c>
       <c r="B28" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         <v/>
       </c>
       <c r="B29" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
@@ -2719,13 +2719,13 @@
         <v/>
       </c>
       <c r="B31" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>281</v>
-      </c>
       <c r="D31" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>174</v>
@@ -2741,13 +2741,13 @@
         <v/>
       </c>
       <c r="B32" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>1</v>
@@ -2762,13 +2762,13 @@
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>1</v>
@@ -2784,13 +2784,13 @@
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>1</v>
@@ -2805,13 +2805,13 @@
         <v/>
       </c>
       <c r="B35" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="D35" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>1</v>
@@ -2826,13 +2826,13 @@
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
@@ -2907,13 +2907,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" t="s">
         <v>340</v>
-      </c>
-      <c r="D2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,13 +2922,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" t="s">
         <v>340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2937,13 +2937,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" t="s">
         <v>340</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2952,13 +2952,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" t="s">
         <v>340</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,13 +2967,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" t="s">
         <v>340</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,13 +2982,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s">
         <v>340</v>
-      </c>
-      <c r="D7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2997,13 +2997,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
         <v>340</v>
-      </c>
-      <c r="D8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,13 +3012,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" t="s">
         <v>340</v>
-      </c>
-      <c r="D9" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,13 +3027,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
         <v>340</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,13 +3042,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
         <v>340</v>
-      </c>
-      <c r="D11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
         <v>340</v>
-      </c>
-      <c r="D12" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,13 +3072,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" t="s">
         <v>340</v>
-      </c>
-      <c r="D13" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3087,13 +3087,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
         <v>340</v>
-      </c>
-      <c r="D14" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,13 +3102,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" t="s">
         <v>340</v>
-      </c>
-      <c r="D15" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,13 +3117,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
         <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,13 +3132,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" t="s">
         <v>340</v>
-      </c>
-      <c r="D17" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,13 +3147,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" t="s">
         <v>340</v>
-      </c>
-      <c r="D18" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3162,13 +3162,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
         <v>340</v>
-      </c>
-      <c r="D19" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,13 +3177,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" t="s">
         <v>340</v>
-      </c>
-      <c r="D20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,13 +3192,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" t="s">
         <v>340</v>
-      </c>
-      <c r="D21" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,13 +3207,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" t="s">
         <v>340</v>
-      </c>
-      <c r="D22" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3222,13 +3222,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" t="s">
         <v>340</v>
-      </c>
-      <c r="D23" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3237,13 +3237,13 @@
         <v/>
       </c>
       <c r="B24" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" t="s">
         <v>340</v>
-      </c>
-      <c r="D24" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3252,13 +3252,13 @@
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" t="s">
         <v>340</v>
-      </c>
-      <c r="D25" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3267,13 +3267,13 @@
         <v/>
       </c>
       <c r="B26" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" t="s">
         <v>340</v>
-      </c>
-      <c r="D26" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3282,13 +3282,13 @@
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" t="s">
         <v>340</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3297,13 +3297,13 @@
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
         <v>340</v>
-      </c>
-      <c r="D28" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3312,13 +3312,13 @@
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" t="s">
         <v>340</v>
-      </c>
-      <c r="D29" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3327,13 +3327,13 @@
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
         <v>340</v>
-      </c>
-      <c r="D30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3342,13 +3342,13 @@
         <v/>
       </c>
       <c r="B31" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
         <v>340</v>
-      </c>
-      <c r="D31" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3357,13 +3357,13 @@
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" t="s">
         <v>340</v>
-      </c>
-      <c r="D32" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3372,13 +3372,13 @@
         <v/>
       </c>
       <c r="B33" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" t="s">
         <v>340</v>
-      </c>
-      <c r="D33" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3387,13 +3387,13 @@
         <v/>
       </c>
       <c r="B34" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" t="s">
         <v>340</v>
-      </c>
-      <c r="D34" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3402,13 +3402,13 @@
         <v/>
       </c>
       <c r="B35" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
         <v>340</v>
-      </c>
-      <c r="D35" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3417,13 +3417,13 @@
         <v/>
       </c>
       <c r="B36" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" t="s">
         <v>340</v>
-      </c>
-      <c r="D36" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4704,77 +4704,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C97F0-6270-7A4B-B438-FB6DA9F28F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68099EB0-F227-224F-97BD-CED95541CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1140" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1059,9 +1059,6 @@
     <t>//diggs:propertyClass</t>
   </si>
   <si>
-    <t>../../../../../../../../MWDResult</t>
-  </si>
-  <si>
     <t>New rod event</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>Vibration acceleration</t>
+  </si>
+  <si>
+    <t>../../../../../../../../../procedure/diggs:MWDProcedure</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1288,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1348,42 +1348,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1400,56 +1369,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1547,6 +1466,56 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1674,30 +1643,30 @@
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D36" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D36" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2035,7 +2004,7 @@
         <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2052,8 +2021,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,7 +2073,7 @@
         <v>296</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>316</v>
@@ -2167,9 +2136,9 @@
         <v>302</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>306</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -2189,7 +2158,7 @@
         <v>300</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>301</v>
@@ -2212,7 +2181,7 @@
       <c r="C7" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="19" t="s">
         <v>324</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -2329,50 +2298,48 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="str">
+      <c r="A13" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="str">
+      <c r="A14" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
@@ -2416,7 +2383,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2437,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2448,7 +2415,7 @@
       <c r="C18" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="19" t="s">
         <v>329</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2458,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2479,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2500,7 +2467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2521,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2542,52 +2509,50 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="str">
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2608,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2629,7 +2594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2650,7 +2615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2671,12 +2636,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C29" s="18" t="s">
@@ -2692,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2703,7 +2668,7 @@
       <c r="C30" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="19" t="s">
         <v>336</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -2713,7 +2678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2735,7 +2700,7 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2764,8 +2729,8 @@
       <c r="B33" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>345</v>
+      <c r="C33" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>307</v>
@@ -2786,10 +2751,10 @@
       <c r="B34" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>311</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -2807,7 +2772,7 @@
       <c r="B35" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="26" t="s">
         <v>314</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -2828,7 +2793,7 @@
       <c r="B36" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="26" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -2874,9 +2839,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:D36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,7 +2878,7 @@
         <v>339</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,7 +2893,7 @@
         <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,7 +2908,7 @@
         <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2958,7 +2923,7 @@
         <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,7 +2938,7 @@
         <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2988,7 +2953,7 @@
         <v>339</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3003,7 +2968,7 @@
         <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +2983,7 @@
         <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3033,7 +2998,7 @@
         <v>339</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3048,7 +3013,7 @@
         <v>339</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3063,7 +3028,7 @@
         <v>339</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3078,7 +3043,7 @@
         <v>339</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,7 +3058,7 @@
         <v>339</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3108,7 +3073,7 @@
         <v>339</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3123,7 +3088,7 @@
         <v>339</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3138,7 +3103,7 @@
         <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3153,7 +3118,7 @@
         <v>339</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,7 +3133,7 @@
         <v>339</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,7 +3148,7 @@
         <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3198,7 +3163,7 @@
         <v>339</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,7 +3178,7 @@
         <v>339</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,7 +3193,7 @@
         <v>339</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3243,7 +3208,7 @@
         <v>339</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3258,7 +3223,7 @@
         <v>339</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3273,7 +3238,7 @@
         <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3288,7 +3253,7 @@
         <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3303,7 +3268,7 @@
         <v>339</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3318,7 +3283,7 @@
         <v>339</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3333,7 +3298,7 @@
         <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3348,7 +3313,7 @@
         <v>339</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3363,67 +3328,67 @@
         <v>339</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="str">
+      <c r="A33" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>354</v>
+      <c r="B33" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="str">
+      <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>351</v>
+      <c r="B34" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>348</v>
+      <c r="B35" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>349</v>
+      <c r="B36" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68099EB0-F227-224F-97BD-CED95541CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00602A0E-29A6-224B-982A-A338717652CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1140" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60160" yWindow="12240" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="364">
   <si>
     <t>Description</t>
   </si>
@@ -765,27 +765,18 @@
     <t>Injected fluid dynamic viscosity</t>
   </si>
   <si>
-    <t>Inclination</t>
-  </si>
-  <si>
     <t>Penetration length</t>
   </si>
   <si>
     <t>Measured depth</t>
   </si>
   <si>
-    <t>Cross-sectional area of excavated borehole</t>
-  </si>
-  <si>
     <t>Hydraulic torque operating pressure</t>
   </si>
   <si>
     <t>Hydraulic crowd operating pressure</t>
   </si>
   <si>
-    <t>Hydraulic fluid flow rate</t>
-  </si>
-  <si>
     <t>Specific energy</t>
   </si>
   <si>
@@ -828,9 +819,6 @@
     <t>injected_fluid_viscosity</t>
   </si>
   <si>
-    <t>inclination</t>
-  </si>
-  <si>
     <t>penetration_length</t>
   </si>
   <si>
@@ -840,9 +828,6 @@
     <t>measured_depth</t>
   </si>
   <si>
-    <t>excavated_borehole_area</t>
-  </si>
-  <si>
     <t>hydraulic_torque_pressure</t>
   </si>
   <si>
@@ -876,12 +861,6 @@
     <t>DIGGS Measurement Properties for MWD</t>
   </si>
   <si>
-    <t>stop_depth</t>
-  </si>
-  <si>
-    <t>Stop Depth</t>
-  </si>
-  <si>
     <t>Measured Depth (ft)</t>
   </si>
   <si>
@@ -966,9 +945,6 @@
     <t>Injected fluid density</t>
   </si>
   <si>
-    <t>Penetration resistance is the amount of time it takes to drill a specified distance.</t>
-  </si>
-  <si>
     <t>Shaft rotational speed</t>
   </si>
   <si>
@@ -984,18 +960,9 @@
     <t>Vibration frequency</t>
   </si>
   <si>
-    <t>The frequency of vibration of the drill string</t>
-  </si>
-  <si>
     <t>True False Flag; true if this is a calibration test</t>
   </si>
   <si>
-    <t>Fluid injection mass flow rate: The mass of drilling fluid injected into the well per unit time.</t>
-  </si>
-  <si>
-    <t>Fluid injection pressure: The pressure at which drilling fluid is injected into the well.</t>
-  </si>
-  <si>
     <t>Fluid injection volumetric flow rate, pumped inflow: The volume of drilling fluid pumped into the well per unit time.</t>
   </si>
   <si>
@@ -1008,27 +975,15 @@
     <t>Total weight of the drill rod or drill string; increases as a new section Is added.</t>
   </si>
   <si>
-    <t>The cross-sectional area of the borehole cleared by the drill bit, assumed from drill bit diameter.</t>
-  </si>
-  <si>
-    <t>Drillability strength.</t>
-  </si>
-  <si>
     <t>The number of the gear that is engaged.</t>
   </si>
   <si>
     <t>Hydraulic crowd operating pressure: The pressure at which the hydraulic system operates to exert crowd force.</t>
   </si>
   <si>
-    <t>Hydraulic fluid flow rate: The flow rate of the hydraulic fluid.</t>
-  </si>
-  <si>
     <t>Hydraulic torque operating pressure. The pressure at which the hydraulic system operates to deliver torque.</t>
   </si>
   <si>
-    <t>Inclination: The angle of the borehole relative to the vertical.</t>
-  </si>
-  <si>
     <t>Injected fluid density: The mass per unit volume of the injected fluid.</t>
   </si>
   <si>
@@ -1041,21 +996,9 @@
     <t>Penetration rate: The speed at which the drill bit penetrates the soil or rock.</t>
   </si>
   <si>
-    <t>The time noted for a certain driling operation or when a measurement is obtained, measured as an elapsed time from the start of drilling or of a drilling segment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somerton index. A strength parameter that correlates the effective weight on a bit, rotation rate, and advance rate. </t>
-  </si>
-  <si>
-    <t>Specific energy. The amount of energy required to excavate a unit volume of soil or rock.</t>
-  </si>
-  <si>
     <t>A logical flag; true when the drill rig advancement is stopped.</t>
   </si>
   <si>
-    <t>Torque: The rotational force applied by the drill rig.</t>
-  </si>
-  <si>
     <t>//diggs:propertyClass</t>
   </si>
   <si>
@@ -1114,6 +1057,78 @@
   </si>
   <si>
     <t>../../../../../../../../../procedure/diggs:MWDProcedure</t>
+  </si>
+  <si>
+    <t>The amount of energy required to excavate a unit volume of soil or rock.</t>
+  </si>
+  <si>
+    <t>The amount of time it takes to drill a specified distance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A strength parameter that correlates the effective weight on a bit, rotation rate, and advance rate. </t>
+  </si>
+  <si>
+    <t>soil_rock_resistance</t>
+  </si>
+  <si>
+    <t>Soil-Rock resistance</t>
+  </si>
+  <si>
+    <t>The force or resistance encountered by drilling equipment as it penetrates through different layers of soil and rock formations.</t>
+  </si>
+  <si>
+    <t>force time per volume</t>
+  </si>
+  <si>
+    <t>alteration_index</t>
+  </si>
+  <si>
+    <t>Alteration index</t>
+  </si>
+  <si>
+    <t>A value of relative hardness as a function of crowd and penetration rate, as defined by Pfister, 1985.</t>
+  </si>
+  <si>
+    <t>Hardness parameter</t>
+  </si>
+  <si>
+    <t>Introduced by Bingham, 1965, this parameter characterizes material hardness through two complementary measures (Γhard and Γeasy) using drilling operational parameters like speed, force, bit size, penetration rate and torque. The two parameters are inversely related to each other.</t>
+  </si>
+  <si>
+    <t>exponent_method</t>
+  </si>
+  <si>
+    <t>Exponent method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A value to estimate pore pressure during drilling by calculating a "d-exponent," which is a normalized measure of drillability based on drilling parameters like weight on bit, rotary speed (RPM), and bit diameter, essentially indicating how easily a formation is being drilled through; this method was first described by Jorden and Shirley in 1966. </t>
+  </si>
+  <si>
+    <t>hardness_parameter</t>
+  </si>
+  <si>
+    <t>Fluid injection mass flow rate: The mass of drilling fluid injected into the hole per unit time.</t>
+  </si>
+  <si>
+    <t>Fluid injection pressure: The pressure at which drilling fluid is injected into the hole.</t>
+  </si>
+  <si>
+    <t>The time noted for a certain driling operation or when a measurement is obtained, measured as an elapsed time from the start of drilling increment.</t>
+  </si>
+  <si>
+    <t>stop_flag</t>
+  </si>
+  <si>
+    <t>Stop Flag</t>
+  </si>
+  <si>
+    <t>Torque: The rotational force applied to the drill rod.</t>
+  </si>
+  <si>
+    <t>The frequency of vibration of the drill string.</t>
+  </si>
+  <si>
+    <t>The inherent resistance of rock to drilling operations that takes into account various rock properties that affect drilling performance, such as: 1) rock hardness, 2) compressive strengt, 3) brasiveness, 4) fracture toughness and 5) mineral composition.</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1348,10 +1363,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,14 +1685,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
-    <sortCondition ref="C1:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
+    <sortCondition ref="C1:C37"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
@@ -1655,14 +1707,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D36" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D38" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
@@ -1673,8 +1725,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
-  <autoFilter ref="A1:C187" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C188" totalsRowShown="0">
+  <autoFilter ref="A1:C188" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C187">
     <sortCondition ref="C1:C187"/>
   </sortState>
@@ -1998,13 +2050,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +2071,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2064,61 +2116,63 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="17" t="s">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>321</v>
+      <c r="D4" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2129,17 +2183,17 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>306</v>
+        <v>323</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
@@ -2151,17 +2205,17 @@
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="15" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>301</v>
+        <v>326</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
@@ -2170,19 +2224,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>324</v>
+        <v>247</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
@@ -2191,82 +2245,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="17" t="s">
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="F8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2275,63 +2331,62 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2861,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>325</v>
+        <v>240</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>3</v>
-      </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>352</v>
+        <v>335</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>336</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>1</v>
@@ -2341,61 +2396,64 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="17" t="s">
+    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>327</v>
+        <v>332</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>328</v>
+        <v>245</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>313</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2404,40 +2462,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2864,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>329</v>
+        <v>244</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -2446,19 +2504,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>331</v>
+      <c r="D20" s="27" t="s">
+        <v>316</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
@@ -2467,19 +2525,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
@@ -2488,19 +2546,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
@@ -2509,19 +2567,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>347</v>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>349</v>
+        <v>327</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>1</v>
@@ -2531,19 +2589,19 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="15" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>174</v>
@@ -2552,19 +2610,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
@@ -2573,19 +2631,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>256</v>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
@@ -2594,19 +2652,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>309</v>
+        <v>249</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>341</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
@@ -2615,19 +2673,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>1</v>
@@ -2636,173 +2694,196 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29" s="17" t="s">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>336</v>
+        <v>268</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E31" s="17" t="s">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="D33" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>311</v>
+        <v>296</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>314</v>
+        <v>304</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>322</v>
+        <v>305</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2820,13 +2901,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$187</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F16</xm:sqref>
+          <xm:sqref>F2:F15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F17:F32</xm:sqref>
+          <xm:sqref>F16:F29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2837,11 +2918,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2868,527 +2949,557 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
         <v>339</v>
-      </c>
-      <c r="D2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
         <v>339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
         <v>339</v>
-      </c>
-      <c r="D5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
         <v>339</v>
-      </c>
-      <c r="D6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
         <v>339</v>
-      </c>
-      <c r="D7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
         <v>339</v>
-      </c>
-      <c r="D8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
         <v>339</v>
-      </c>
-      <c r="D9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
         <v>339</v>
-      </c>
-      <c r="D10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
         <v>339</v>
-      </c>
-      <c r="D11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
         <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" t="s">
         <v>339</v>
-      </c>
-      <c r="D13" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
         <v>339</v>
-      </c>
-      <c r="D14" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
         <v>339</v>
-      </c>
-      <c r="D15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
         <v>339</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" t="s">
         <v>339</v>
-      </c>
-      <c r="D17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
         <v>339</v>
-      </c>
-      <c r="D18" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" t="s">
         <v>339</v>
-      </c>
-      <c r="D19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" t="s">
         <v>339</v>
-      </c>
-      <c r="D20" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
         <v>339</v>
       </c>
-      <c r="D21" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B22" t="s">
-        <v>274</v>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
         <v>339</v>
       </c>
-      <c r="D22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" t="s">
-        <v>275</v>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
         <v>339</v>
-      </c>
-      <c r="D23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" t="s">
         <v>339</v>
-      </c>
-      <c r="D24" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" t="s">
         <v>339</v>
-      </c>
-      <c r="D25" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" t="s">
         <v>339</v>
-      </c>
-      <c r="D26" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
         <v>339</v>
-      </c>
-      <c r="D27" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" t="s">
         <v>339</v>
-      </c>
-      <c r="D28" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" t="s">
         <v>339</v>
-      </c>
-      <c r="D29" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" t="s">
         <v>339</v>
-      </c>
-      <c r="D30" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" s="10" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" t="s">
         <v>339</v>
-      </c>
-      <c r="D31" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
         <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" s="10" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" t="s">
         <v>339</v>
-      </c>
-      <c r="D33" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" s="10" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" t="s">
         <v>339</v>
       </c>
-      <c r="D34" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="37" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" t="s">
         <v>339</v>
       </c>
-      <c r="D35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1825,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" t="s">
         <v>339</v>
       </c>
-      <c r="D36" t="s">
-        <v>358</v>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3406,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4644,6 +4755,11 @@
         <v>164</v>
       </c>
       <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
@@ -4669,77 +4785,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00602A0E-29A6-224B-982A-A338717652CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05BCDC-5EF6-CF45-A588-3207807CFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60160" yWindow="12240" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2073,7 +2073,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05BCDC-5EF6-CF45-A588-3207807CFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD025F72-3EF8-CA4A-834E-FBA34E4D376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59700" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
   <si>
     <t>Description</t>
   </si>
@@ -960,9 +960,6 @@
     <t>Vibration frequency</t>
   </si>
   <si>
-    <t>True False Flag; true if this is a calibration test</t>
-  </si>
-  <si>
     <t>Fluid injection volumetric flow rate, pumped inflow: The volume of drilling fluid pumped into the well per unit time.</t>
   </si>
   <si>
@@ -1059,24 +1056,12 @@
     <t>../../../../../../../../../procedure/diggs:MWDProcedure</t>
   </si>
   <si>
-    <t>The amount of energy required to excavate a unit volume of soil or rock.</t>
-  </si>
-  <si>
-    <t>The amount of time it takes to drill a specified distance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A strength parameter that correlates the effective weight on a bit, rotation rate, and advance rate. </t>
-  </si>
-  <si>
     <t>soil_rock_resistance</t>
   </si>
   <si>
     <t>Soil-Rock resistance</t>
   </si>
   <si>
-    <t>The force or resistance encountered by drilling equipment as it penetrates through different layers of soil and rock formations.</t>
-  </si>
-  <si>
     <t>force time per volume</t>
   </si>
   <si>
@@ -1128,7 +1113,61 @@
     <t>The frequency of vibration of the drill string.</t>
   </si>
   <si>
-    <t>The inherent resistance of rock to drilling operations that takes into account various rock properties that affect drilling performance, such as: 1) rock hardness, 2) compressive strengt, 3) brasiveness, 4) fracture toughness and 5) mineral composition.</t>
+    <t>True-False Flag; true if this is a calibration test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfister, P. 1985. “Recording Drilling Parameters in Ground Engineering.” Journal of Ground Engineering, 18(3), 16–21. </t>
+  </si>
+  <si>
+    <t>The amount of energy required to excavate a unit volume of soil or rock as defined by Teae, 1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teale, R. 1965. “The concept of specific energy in rock drilling.” International Journal of Rock Mechanics and Mining Sciences. 2(1): 57–73. </t>
+  </si>
+  <si>
+    <t>Karasawa, H., Ohno, T., Kosugi, M., and Rowley, J. C., 2002, “Methods to Estimate the Rock Strength and Tooth Wear While Drilling With Roller-Bits, Part 1: Milled-Tooth Bits,” ASME J. Energy Resour. Technol., 124, pp. 125–132.</t>
+  </si>
+  <si>
+    <t>The inherent resistance of rock to drilling operations that takes into account various rock properties that affect drilling performance, such as: 1) rock hardness, 2) compressive strength, 3) abrasiveness, 4) fracture toughness and 5) mineral composition. Introduced by Karasawa and others, 2002.</t>
+  </si>
+  <si>
+    <t>The amount of time it takes to drill a specified distance. Defined in ISO/IEC, 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO/IEC. 2016. Geotechnical Investigation and Testing – Field Testing – Part 15: Measuring While Drilling. ISO 22476-15:2016, International Standards Organization. Geneva, Switzerland. </t>
+  </si>
+  <si>
+    <t>fluid_temperature</t>
+  </si>
+  <si>
+    <t>Fluid temperature</t>
+  </si>
+  <si>
+    <t>The temperature of thedrilling fluid.</t>
+  </si>
+  <si>
+    <t>eccentricity</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>The offset distance between the axis of the drill bit rotation and the center of the wellbore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Somerton (1959), a strength parameter that correlates the effective weight on a bit, rotation rate, and advance rate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somerton W.H. 1959. “A laboratory study of rock breakage by rotary drilling.” J. Pet. Technol, 216 pp. 92-97. </t>
+  </si>
+  <si>
+    <t>The force or resistance encountered by drilling equipment as it penetrates through different layers of soil and rock formations, from ISO/IEC, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bingham, M. 1965. “A New Approach to Interpreting Rock Drillability.” Petroleum Publishing Company. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorden, J., and Shirley, O. 1966. “Application of Drilling Performance Data to Overpressure Detection.” Journal of Petroleum Technology, 7, 987–991. </t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1342,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1387,6 +1426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1421,6 +1463,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1476,27 +1539,6 @@
         <vertAlign val="baseline"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1685,8 +1727,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
     <sortCondition ref="C1:C37"/>
   </sortState>
@@ -1699,26 +1741,26 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D38" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2056,7 +2098,7 @@
         <v>273</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2071,10 +2113,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2116,28 +2158,30 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="36" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
@@ -2148,10 +2192,10 @@
         <v>289</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>174</v>
@@ -2172,7 +2216,7 @@
         <v>235</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2190,7 +2234,7 @@
         <v>295</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>299</v>
@@ -2212,7 +2256,7 @@
         <v>293</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>294</v>
@@ -2224,7 +2268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2244,29 +2288,34 @@
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="H7" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="E8" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
@@ -2280,7 +2329,7 @@
         <v>238</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2301,7 +2350,7 @@
         <v>239</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2322,7 +2371,7 @@
         <v>237</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2343,7 +2392,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>1</v>
@@ -2364,7 +2413,7 @@
         <v>298</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>180</v>
@@ -2380,13 +2429,13 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="28" t="s">
         <v>335</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>336</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>1</v>
@@ -2396,28 +2445,30 @@
       </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
@@ -2425,13 +2476,13 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="28" t="s">
         <v>332</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>333</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2453,7 +2504,7 @@
         <v>245</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2474,7 +2525,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -2495,7 +2546,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -2516,7 +2567,7 @@
         <v>241</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
@@ -2558,7 +2609,7 @@
         <v>271</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
@@ -2573,13 +2624,13 @@
         <v/>
       </c>
       <c r="B23" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>1</v>
@@ -2595,13 +2646,13 @@
         <v/>
       </c>
       <c r="B24" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>174</v>
@@ -2622,7 +2673,7 @@
         <v>242</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
@@ -2643,7 +2694,7 @@
         <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
@@ -2652,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2664,13 +2715,16 @@
         <v>249</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>21</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2694,30 +2748,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="E29" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2729,7 +2785,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
@@ -2737,8 +2793,11 @@
       <c r="F30" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H30" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2750,13 +2809,16 @@
         <v>246</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>3</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2765,13 +2827,13 @@
         <v/>
       </c>
       <c r="B32" s="15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>174</v>
@@ -2781,7 +2843,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2793,7 +2855,7 @@
         <v>234</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>1</v>
@@ -2802,7 +2864,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2811,7 +2873,7 @@
         <v>296</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>300</v>
@@ -2824,7 +2886,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2833,7 +2895,7 @@
         <v>304</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>303</v>
@@ -2845,7 +2907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2857,7 +2919,7 @@
         <v>306</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
@@ -2866,7 +2928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2878,7 +2940,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>1</v>
@@ -2886,6 +2948,52 @@
       <c r="F37" s="14" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <v>Not used</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="37"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <v>Not used</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2956,10 +3064,10 @@
         <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,10 +3079,10 @@
         <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,10 +3094,10 @@
         <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3001,10 +3109,10 @@
         <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3016,10 +3124,10 @@
         <v>255</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,10 +3139,10 @@
         <v>256</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,10 +3154,10 @@
         <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3061,10 +3169,10 @@
         <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3076,10 +3184,10 @@
         <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3091,10 +3199,10 @@
         <v>260</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3106,10 +3214,10 @@
         <v>261</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3121,10 +3229,10 @@
         <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,10 +3244,10 @@
         <v>263</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3151,10 +3259,10 @@
         <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3166,10 +3274,10 @@
         <v>265</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3181,10 +3289,10 @@
         <v>266</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,10 +3304,10 @@
         <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,10 +3319,10 @@
         <v>268</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3226,10 +3334,10 @@
         <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,10 +3349,10 @@
         <v>270</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3253,13 +3361,13 @@
         <v/>
       </c>
       <c r="B22" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3271,10 +3379,10 @@
         <v>296</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3286,10 +3394,10 @@
         <v>289</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3301,10 +3409,10 @@
         <v>295</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3316,10 +3424,10 @@
         <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3331,10 +3439,10 @@
         <v>293</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3346,10 +3454,10 @@
         <v>297</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3361,10 +3469,10 @@
         <v>304</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3376,10 +3484,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3388,13 +3496,13 @@
         <v/>
       </c>
       <c r="B31" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3403,13 +3511,13 @@
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3418,13 +3526,13 @@
         <v/>
       </c>
       <c r="B33" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3433,73 +3541,73 @@
         <v/>
       </c>
       <c r="B34" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>343</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="38" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>352</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3519,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4758,7 +4866,7 @@
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD025F72-3EF8-CA4A-834E-FBA34E4D376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944B97A-C247-9348-B867-F1AA6BEA99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59700" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="384">
   <si>
     <t>Description</t>
   </si>
@@ -1168,6 +1168,27 @@
   </si>
   <si>
     <t xml:space="preserve">Jorden, J., and Shirley, O. 1966. “Application of Drilling Performance Data to Overpressure Detection.” Journal of Petroleum Technology, 7, 987–991. </t>
+  </si>
+  <si>
+    <t>https://emap-romulus-prod.s3.eu-west-1.amazonaws.com/wp-content/uploads/sites/13/1985/04/1985-04_Pages_16-21.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2118/1407-PA</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1115/1.1482405</t>
+  </si>
+  <si>
+    <t>https://books.google.com/books/about/A_New_Approach_to_Interpreting_Rock_Dril.html?id=8KcRnQEACAAJ</t>
+  </si>
+  <si>
+    <t>https://www.iso.org/standard/63412.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2118/1163-G</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0148-9062(65)90022-7</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1350,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1341,8 +1362,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1420,6 +1442,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1448,8 +1473,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1460,6 +1494,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -2115,8 +2150,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2163,7 @@
     <col min="5" max="5" width="11.1640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" style="14" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
@@ -2158,29 +2193,31 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="str">
+    <row r="2" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>359</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2268,7 +2305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2288,33 +2325,38 @@
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="str">
+      <c r="H7" s="43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>376</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2446,29 +2488,31 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="str">
+      <c r="A15" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="44" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
@@ -2703,7 +2747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2723,8 +2767,11 @@
       <c r="F27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>365</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2748,32 +2795,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="str">
+    <row r="29" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="36" t="s">
+      <c r="G29" s="37" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="H29" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2793,11 +2842,14 @@
       <c r="F30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="14" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="H30" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2817,8 +2869,11 @@
       <c r="F31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="G31" s="14" t="s">
         <v>361</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2950,57 +3005,65 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="str">
+      <c r="A38" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="str">
+      <c r="A39" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{4E4F4386-7FD3-DF49-A4FA-813DAEC4C0E2}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{19D7D6E5-5ACE-324A-8460-A6F4DDD4E28B}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{57F0ED7A-11F4-D240-AD82-9CE55AE72124}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{8D50C3BF-C589-C14D-B41C-E99AE03A2CDC}"/>
+    <hyperlink ref="H30" r:id="rId5" xr:uid="{FC3D442E-4CC0-0847-A941-C36DD2CE39AF}"/>
+    <hyperlink ref="H31" r:id="rId6" xr:uid="{0FF5AB1B-449D-8843-B572-B81E096359CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3551,11 +3614,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="str">
+      <c r="A35" s="39" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3566,11 +3629,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="str">
+      <c r="A36" s="39" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="40" t="s">
         <v>342</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3581,11 +3644,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="str">
+      <c r="A37" s="39" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
         <v>350</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3596,11 +3659,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="str">
+      <c r="A38" s="39" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="40" t="s">
         <v>347</v>
       </c>
       <c r="C38" s="3" t="s">

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944B97A-C247-9348-B867-F1AA6BEA99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F57FE8-D49D-604A-B0EE-2CC5BD68A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59700" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="384">
   <si>
     <t>Description</t>
   </si>
@@ -1143,18 +1143,6 @@
     <t>Fluid temperature</t>
   </si>
   <si>
-    <t>The temperature of thedrilling fluid.</t>
-  </si>
-  <si>
-    <t>eccentricity</t>
-  </si>
-  <si>
-    <t>Eccentricity</t>
-  </si>
-  <si>
-    <t>The offset distance between the axis of the drill bit rotation and the center of the wellbore.</t>
-  </si>
-  <si>
     <t xml:space="preserve">From Somerton (1959), a strength parameter that correlates the effective weight on a bit, rotation rate, and advance rate. </t>
   </si>
   <si>
@@ -1189,6 +1177,18 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/0148-9062(65)90022-7</t>
+  </si>
+  <si>
+    <t>The temperature of the drilling fluid.</t>
+  </si>
+  <si>
+    <t>A logical flag; true when observation and/or rig vibration indicates significant offset between the bit axis of rotation and the vellbore center.</t>
+  </si>
+  <si>
+    <t>eccentric_rotation</t>
+  </si>
+  <si>
+    <t>Eccentric rotation</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1784,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D38" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -2150,8 +2150,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2159,7 @@
     <col min="1" max="1" width="7" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="14" customWidth="1"/>
@@ -2217,7 +2217,7 @@
         <v>359</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2329,7 +2329,7 @@
         <v>362</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -2353,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>365</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
         <v>340</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>365</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2834,7 +2834,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
@@ -2843,10 +2843,10 @@
         <v>10</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -2873,7 +2873,7 @@
         <v>361</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3007,7 +3007,7 @@
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
+        <v/>
       </c>
       <c r="B38" s="33" t="s">
         <v>366</v>
@@ -3016,7 +3016,7 @@
         <v>367</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>1</v>
@@ -3027,25 +3027,25 @@
       <c r="G38" s="38"/>
       <c r="H38" s="37"/>
     </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
+        <v/>
       </c>
       <c r="B39" s="33" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="37"/>
@@ -3089,11 +3089,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3670,6 +3670,36 @@
         <v>319</v>
       </c>
       <c r="D38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" t="s">
         <v>338</v>
       </c>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F57FE8-D49D-604A-B0EE-2CC5BD68A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E730EDB-F791-0E40-A9A2-1286F4736DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,13 +1182,13 @@
     <t>The temperature of the drilling fluid.</t>
   </si>
   <si>
-    <t>A logical flag; true when observation and/or rig vibration indicates significant offset between the bit axis of rotation and the vellbore center.</t>
-  </si>
-  <si>
     <t>eccentric_rotation</t>
   </si>
   <si>
     <t>Eccentric rotation</t>
+  </si>
+  <si>
+    <t>A logical flag; true when observation and/or rig vibration indicates significant offset between the bit axis of rotation and the wellbore center.</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3033,13 +3033,13 @@
         <v/>
       </c>
       <c r="B39" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>383</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>381</v>
       </c>
       <c r="E39" s="36" t="s">
         <v>174</v>
@@ -3694,7 +3694,7 @@
         <v/>
       </c>
       <c r="B40" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>319</v>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E730EDB-F791-0E40-A9A2-1286F4736DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19E7CB-A1FD-7549-83EB-17A2D43DC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19E7CB-A1FD-7549-83EB-17A2D43DC165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B34E80-8367-7642-B40E-69016604B5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60160" yWindow="12740" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="5040" windowWidth="42140" windowHeight="19460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="383">
   <si>
     <t>Description</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Penetration length</t>
   </si>
   <si>
-    <t>Measured depth</t>
-  </si>
-  <si>
     <t>Hydraulic torque operating pressure</t>
   </si>
   <si>
@@ -822,12 +819,6 @@
     <t>penetration_length</t>
   </si>
   <si>
-    <t>measured_time</t>
-  </si>
-  <si>
-    <t>measured_depth</t>
-  </si>
-  <si>
     <t>hydraulic_torque_pressure</t>
   </si>
   <si>
@@ -852,9 +843,6 @@
     <t>drill_rod_weight</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured time </t>
-  </si>
-  <si>
     <t>mwd_properties</t>
   </si>
   <si>
@@ -1053,9 +1041,6 @@
     <t>Vibration acceleration</t>
   </si>
   <si>
-    <t>../../../../../../../../../procedure/diggs:MWDProcedure</t>
-  </si>
-  <si>
     <t>soil_rock_resistance</t>
   </si>
   <si>
@@ -1189,6 +1174,18 @@
   </si>
   <si>
     <t>A logical flag; true when observation and/or rig vibration indicates significant offset between the bit axis of rotation and the wellbore center.</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Measured Depth</t>
+  </si>
+  <si>
+    <t>Measured Time</t>
+  </si>
+  <si>
+    <t>ancestor::measurement//procedure/diggs:MWDProcedure</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1361,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1427,51 +1424,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1498,27 +1452,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1574,6 +1507,27 @@
         <vertAlign val="baseline"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1776,26 +1730,26 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D40" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D40" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,13 +2081,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2150,8 +2104,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,30 +2148,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>373</v>
+      <c r="G2" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2226,13 +2180,13 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>174</v>
@@ -2247,13 +2201,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>309</v>
+      <c r="D4" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2268,13 +2222,13 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
@@ -2290,13 +2244,13 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>294</v>
+        <v>321</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
@@ -2311,13 +2265,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
@@ -2326,37 +2280,37 @@
         <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>375</v>
+        <v>357</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>374</v>
+      <c r="G8" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2365,13 +2319,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2386,13 +2340,13 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>239</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2407,13 +2361,13 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2428,13 +2382,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>308</v>
+      <c r="D12" s="19" t="s">
+        <v>304</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>1</v>
@@ -2449,13 +2403,13 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>180</v>
@@ -2471,13 +2425,13 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>1</v>
@@ -2488,30 +2442,30 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="C15" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2520,13 +2474,13 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2542,13 +2496,13 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>312</v>
+        <v>244</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2563,13 +2517,13 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -2584,13 +2538,13 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -2605,13 +2559,13 @@
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>315</v>
+      <c r="D20" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
@@ -2620,19 +2574,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>243</v>
+        <v>380</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
@@ -2641,19 +2595,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
@@ -2668,13 +2622,13 @@
         <v/>
       </c>
       <c r="B23" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>329</v>
+        <v>322</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>1</v>
@@ -2690,13 +2644,13 @@
         <v/>
       </c>
       <c r="B24" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>174</v>
@@ -2711,13 +2665,13 @@
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>1</v>
@@ -2731,14 +2685,14 @@
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>253</v>
+      <c r="B26" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>236</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
@@ -2753,13 +2707,13 @@
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>364</v>
+        <v>248</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
@@ -2768,10 +2722,10 @@
         <v>21</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>377</v>
+        <v>360</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2780,13 +2734,13 @@
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>1</v>
@@ -2796,30 +2750,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="str">
+      <c r="A29" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="E29" s="36" t="s">
+      <c r="B29" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>377</v>
+      <c r="F29" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2828,13 +2782,13 @@
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>248</v>
+        <v>265</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1</v>
@@ -2843,10 +2797,10 @@
         <v>10</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>378</v>
+        <v>364</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -2855,13 +2809,13 @@
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>360</v>
+        <v>263</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>1</v>
@@ -2870,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>379</v>
+        <v>356</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2882,13 +2836,13 @@
         <v/>
       </c>
       <c r="B32" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>350</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>174</v>
@@ -2898,19 +2852,19 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>234</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>1</v>
@@ -2919,19 +2873,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>300</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>1</v>
@@ -2941,19 +2895,19 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>1</v>
@@ -2962,19 +2916,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
@@ -2983,19 +2937,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>250</v>
+        <v>267</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>1</v>
@@ -3004,51 +2958,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="str">
+    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="E38" s="36" t="s">
+      <c r="B38" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="str">
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="36" t="s">
+      <c r="B39" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="37"/>
+      <c r="G39" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3091,9 +3043,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3124,13 +3076,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,13 +3091,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,13 +3106,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3169,13 +3121,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3184,13 +3136,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,13 +3151,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,13 +3166,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3229,13 +3181,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3244,13 +3196,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3259,13 +3211,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3274,13 +3226,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,13 +3241,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,13 +3256,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,13 +3271,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3334,13 +3286,13 @@
         <v>Not listed</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3349,13 +3301,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3364,13 +3316,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,13 +3331,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3394,13 +3346,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3409,13 +3361,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3424,13 +3376,13 @@
         <v/>
       </c>
       <c r="B22" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3439,13 +3391,13 @@
         <v/>
       </c>
       <c r="B23" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3454,13 +3406,13 @@
         <v/>
       </c>
       <c r="B24" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3469,13 +3421,13 @@
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3484,13 +3436,13 @@
         <v/>
       </c>
       <c r="B26" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3499,13 +3451,13 @@
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3514,13 +3466,13 @@
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3529,13 +3481,13 @@
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3544,13 +3496,13 @@
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3559,13 +3511,13 @@
         <v/>
       </c>
       <c r="B31" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3574,13 +3526,13 @@
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3589,13 +3541,13 @@
         <v/>
       </c>
       <c r="B33" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3604,103 +3556,103 @@
         <v/>
       </c>
       <c r="B34" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>339</v>
+      <c r="B35" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>347</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="39" t="str">
+      <c r="A39" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>366</v>
+      <c r="B39" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="str">
+      <c r="A40" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>381</v>
+      <c r="B40" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4959,7 +4911,7 @@
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4986,77 +4938,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B34E80-8367-7642-B40E-69016604B5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE3DF4-7A8B-904A-A38A-9C50AC5B5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="5040" windowWidth="42140" windowHeight="19460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
     <t>Measured Time</t>
   </si>
   <si>
-    <t>ancestor::measurement//procedure/diggs:MWDProcedure</t>
+    <t>ancestor::diggs:measurement//diggs:procedure/diggs:MWDProcedure</t>
   </si>
 </sst>
 </file>
@@ -3044,8 +3044,8 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/mwd_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE3DF4-7A8B-904A-A38A-9C50AC5B5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D922F2CB-9668-8B40-9878-FE0AF68C6936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="5040" windowWidth="42140" windowHeight="19460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="5040" windowWidth="42140" windowHeight="19460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="384">
   <si>
     <t>Description</t>
   </si>
@@ -699,9 +699,6 @@
     <t>volume per time per volume</t>
   </si>
   <si>
-    <t>unitless</t>
-  </si>
-  <si>
     <t>density or unit weight</t>
   </si>
   <si>
@@ -999,9 +996,6 @@
     <t>Calibration flag</t>
   </si>
   <si>
-    <t>Torque Tach (%)</t>
-  </si>
-  <si>
     <t>Cutting tool rotational speed</t>
   </si>
   <si>
@@ -1186,6 +1180,15 @@
   </si>
   <si>
     <t>ancestor::diggs:measurement//diggs:procedure/diggs:MWDProcedure</t>
+  </si>
+  <si>
+    <t>Hydraulic fluid flow rate</t>
+  </si>
+  <si>
+    <t>Rate of flow of the rig hydraulic fluid.</t>
+  </si>
+  <si>
+    <t>Torque Tach</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1346,6 +1349,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1361,7 +1373,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1434,6 +1446,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1716,10 +1746,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
-    <sortCondition ref="C1:C37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
+    <sortCondition ref="C1:C38"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
@@ -1745,7 +1775,7 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
@@ -1756,10 +1786,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C188" totalsRowShown="0">
-  <autoFilter ref="A1:C188" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C187">
-    <sortCondition ref="C1:C187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
+  <autoFilter ref="A1:C187" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C186">
+    <sortCondition ref="C1:C186"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DataType"/>
@@ -2058,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>14</v>
@@ -2073,21 +2103,21 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2102,10 +2132,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2126,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>8</v>
@@ -2138,13 +2168,13 @@
         <v>165</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -2153,25 +2183,22 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>339</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2180,19 +2207,16 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2201,13 +2225,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1</v>
@@ -2222,13 +2246,13 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1</v>
@@ -2244,13 +2268,13 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>1</v>
@@ -2265,13 +2289,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>1</v>
@@ -2280,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -2292,25 +2316,22 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>344</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="G8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>367</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2319,13 +2340,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>1</v>
@@ -2340,13 +2361,13 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>1</v>
@@ -2361,13 +2382,13 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2382,13 +2403,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>1</v>
@@ -2403,19 +2424,16 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="D13" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -2425,13 +2443,13 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>331</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>1</v>
@@ -2447,25 +2465,22 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2474,13 +2489,13 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2496,13 +2511,13 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>1</v>
@@ -2517,13 +2532,13 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -2533,259 +2548,252 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="A19" s="30" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>311</v>
+        <v>296</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>286</v>
+        <v>240</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>323</v>
-      </c>
       <c r="C23" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>325</v>
+        <v>379</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="19"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>324</v>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="15" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>359</v>
+        <v>235</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>288</v>
+        <v>247</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="15" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>247</v>
+        <v>332</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>363</v>
@@ -2794,213 +2802,231 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>355</v>
+        <v>246</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>320</v>
+        <v>249</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>299</v>
+        <v>383</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>295</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="15" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="15" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>375</v>
+        <v>248</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="19"/>
+      <c r="G40" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3009,8 +3035,8 @@
     <hyperlink ref="H7" r:id="rId2" xr:uid="{19D7D6E5-5ACE-324A-8460-A6F4DDD4E28B}"/>
     <hyperlink ref="H8" r:id="rId3" xr:uid="{57F0ED7A-11F4-D240-AD82-9CE55AE72124}"/>
     <hyperlink ref="H15" r:id="rId4" xr:uid="{8D50C3BF-C589-C14D-B41C-E99AE03A2CDC}"/>
-    <hyperlink ref="H30" r:id="rId5" xr:uid="{FC3D442E-4CC0-0847-A941-C36DD2CE39AF}"/>
-    <hyperlink ref="H31" r:id="rId6" xr:uid="{0FF5AB1B-449D-8843-B572-B81E096359CD}"/>
+    <hyperlink ref="H31" r:id="rId5" xr:uid="{FC3D442E-4CC0-0847-A941-C36DD2CE39AF}"/>
+    <hyperlink ref="H32" r:id="rId6" xr:uid="{0FF5AB1B-449D-8843-B572-B81E096359CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -3022,15 +3048,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E8BE39A-6790-4C87-932D-CBC46A1C9925}">
           <x14:formula1>
-            <xm:f>Lists!$C$2:$C$187</xm:f>
+            <xm:f>Lists!$C$2:$C$186</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>Lists!$C$2:$C$178</xm:f>
+            <xm:f>Lists!$C$2:$C$177</xm:f>
           </x14:formula1>
-          <xm:sqref>F16:F29</xm:sqref>
+          <xm:sqref>F16:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3043,9 +3069,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3061,598 +3087,598 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
+        <v/>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B36" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B38" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1822,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1823,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3670,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3687,10 +3713,10 @@
         <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,7 +3881,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
@@ -3930,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7"/>
     </row>
@@ -3996,7 +4022,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -4653,7 +4679,7 @@
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D145" s="7"/>
     </row>
@@ -4791,132 +4817,126 @@
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="D185" s="8"/>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D186" s="8"/>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>164</v>
-      </c>
-      <c r="D187" s="8"/>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
-    <sortCondition ref="F2:F176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F175">
+    <sortCondition ref="F2:F175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4938,77 +4958,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
